--- a/public/files/nacional/oma/PlanillaNacional.xlsx
+++ b/public/files/nacional/oma/PlanillaNacional.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Foma\Dropbox\Ñandú\Veronica\Oma\OMA 2025\04 NACIONAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9AAAC5-2247-48CD-8AAD-75003DD70EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>N°</t>
   </si>
@@ -69,6 +75,9 @@
   </si>
   <si>
     <t>Cel Contacto</t>
+  </si>
+  <si>
+    <t>Provincia</t>
   </si>
   <si>
     <r>
@@ -160,24 +169,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>tarjeta</t>
+      <t>tarjeta (ingreso a premiación)</t>
     </r>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>Vianda 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -220,13 +223,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -314,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -357,26 +353,23 @@
     <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -602,34 +595,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="19" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8" style="24" customWidth="1"/>
+    <col min="6" max="6" width="8" style="23" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -643,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>4</v>
@@ -667,522 +659,493 @@
         <v>10</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>17</v>
+      <c r="O1" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="6"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="6"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="6"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="6"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="6"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="6"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="6"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="6"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="6"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="6"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="6"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="6"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="6"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="6"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="6"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="6"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="6"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="6"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="6"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="6"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="6"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="6"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="6"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="6"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="8"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="11"/>
@@ -1191,17 +1154,16 @@
       <c r="L28" s="9"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
+      <c r="O28" s="8"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="8"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="22"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="11"/>
@@ -1210,17 +1172,16 @@
       <c r="L29" s="9"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
+      <c r="O29" s="8"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="22"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="11"/>
@@ -1229,16 +1190,15 @@
       <c r="L30" s="9"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
+      <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
     </row>
-    <row r="32" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
-        <v>15</v>
+    <row r="32" spans="1:16" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>16</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="F32" s="23"/>
+      <c r="B32" s="20"/>
+      <c r="F32" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -1250,7 +1210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2267,7 +2227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
